--- a/job_listings.xlsx
+++ b/job_listings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,88 +473,86 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jamia Darululoom Karachi</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Karachi</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Senior/Mid Level Laravel/PHP Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2-3 years of experience with Laravel, CodeIgniter, MySQL.</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Posted
-Posted 2 days ago</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>pk Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AL FAROOQ ENTERPRISES</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Karachi</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Senior Back-End Developer (Laravel) – Remote</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>We deliver fit for purpose web platforms that are both search engine friendly and create a modern and professional online image.</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Posted
-Posted 2 days ago</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>pk Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Virtesys LLP</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Karachi</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -564,7 +562,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Laravel Developer(Mid To Experienced Level)</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -579,289 +577,278 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>pk Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ItechX Technologies Pvt Ltd</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rs 30,000 - Rs 50,000 a month</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>ITECHX LTD Is looking for a competent Senior Software Engineer who will be responsible to develop/code information systems by studying operations; designing,…</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Posted
-Posted 30+ days ago</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>pk Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Combine Solutions</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Karachi</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Senior Back-End Developer (Laravel) – Remote</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>We deliver fit for purpose web platforms that are both search engine friendly and create a modern and professional online image.</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Posted
-Posted 2 days ago</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>pk Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DigitalTolk</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Karachi</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Senior Laravel Developer Remote</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Actively contribute to the development of high-quality code using PHP Laravel, ensuring the scalability and maintainability of the codebase.</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Employer
-Active 9 days ago</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>pk Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>a leading UK web design and development agency</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Senior Back-End Developer (Laravel) – Remote</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>We deliver fit for purpose web platforms that are both search engine friendly and create a modern and professional online image.
-Experience: *5 Years - 6 Years.</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Posted
-Posted 2 days ago</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>pk Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Services79</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Senior Back-End Developer (Laravel) – Remote</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>We deliver fit for purpose web platforms that are both search engine friendly and create a modern and professional online image.</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Posted
-Posted 2 days ago</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>pk Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Weblinerz</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Rs 60,000 - Rs 80,000 a month</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PHP Developer (Remote)</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Develop and maintain robust web applications using PHP.
-Write clean, efficient, and secure PHP code to ensure high performance and scalability.</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Employer
-Active 3 days ago</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>pk Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NextgenI</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Karachi</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Senior Laravel + React Developers</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Minimum 5+ years experience in Web Development.
-Minimum 2+ years experience in LAMP development.
-Minimum 1+years experience with React.</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Posted
-Posted 30+ days ago</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>pk Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AlgoRepublic Private limited</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -871,7 +858,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Senior Back-End Developer (Laravel) – Remote</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -886,102 +873,98 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>pk Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ibix Global Tech</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Karachi</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Laravel developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>This position requires a combination of programming skills (namely PHP, HTML5, CSS3, and JavaScript) and aesthetics (understanding element arrangements on the…</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Posted
-Posted 1 day ago</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>pk Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Rholab Interactive</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Karachi</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PHP Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Strong Knowledge in HTML 5 Less/CSS/ Bootstrap and JavaScript.
-Expert knowledge in PHP (Preferred Framework Laravel) and MYSQL.</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Posted
-Just posted</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>pk Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HA-Technologies PVT LTD</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Islamabad</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Full-time
-+1</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -991,31 +974,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>The ideal candidate will have 2-3 years of experience in web development using the Laravel framework.
-You will be responsible for developing, maintaining, and…</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Employer
-Active 4 days ago</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>pk Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Technotz</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Gujranwala</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1025,7 +1006,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Experienced Laravel Vue Developer [Remote]</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1040,19 +1021,19 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>pk Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BigShyft</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1077,19 +1058,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fexle InfoTech</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Remote in Noida, Uttar Pradesh</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1099,7 +1080,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Remote Laravel Developer (upto 3 years)</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1114,19 +1095,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Codelattice</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1136,7 +1117,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>PHP Laravel &amp; Vue.js Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1151,19 +1132,19 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Getinz</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Remote in Bengaluru, Karnataka</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1173,7 +1154,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Fullstack(PHP&amp;reactjs)_GCMS_Remote (Remote)</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1188,19 +1169,19 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Geekyants</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bengaluru, Karnataka</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1225,19 +1206,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>True Data Software</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1247,7 +1228,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Laravel developers</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1262,19 +1243,19 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>YaaraDigi Media</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1284,7 +1265,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Senior Laravel Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1299,19 +1280,19 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Codenia Technologies</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Noida, Uttar Pradesh</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1321,7 +1302,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Laravel Developer - 1 year</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1336,19 +1317,19 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A2Z Jobs Consultancy</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Remote in Kolkata, West Bengal</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1358,7 +1339,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Php Laravel Developer (Remote)</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1373,19 +1354,19 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lucid Softech IT Solutions</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Lucknow, Uttar Pradesh</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1395,7 +1376,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Laravel developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1410,19 +1391,19 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>N-Xperts Solutions</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rajkot, Gujarat</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1432,7 +1413,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Senior Laravel Developers</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1447,19 +1428,19 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Harry International</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1484,19 +1465,19 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Global Garner Sales Services</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ahmedabad, Gujarat</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1506,7 +1487,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Laravel/PHP Team Leader</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1521,19 +1502,19 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TekGeminus</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Pune, Maharashtra</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1543,7 +1524,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1558,19 +1539,19 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CANGRA Talents</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Remote in Lucknow, Uttar Pradesh</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1580,7 +1561,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1595,19 +1576,19 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cignes Business Solutions</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1617,7 +1598,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Senior PHP Developer (Vacancy 2)</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1632,19 +1613,19 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Talent Pal</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1654,7 +1635,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Senior PHP Developer (Vacancy 2) - Cignes Business Solutions</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1669,19 +1650,19 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>webook.com</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1691,7 +1672,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Senior Backend Engineer - Laravel</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1706,19 +1687,19 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Salla</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>مكة</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1728,7 +1709,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Senior Backend Engineer - Laravel</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1743,19 +1724,19 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Salla</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1765,7 +1746,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Tech Lead ( Laravel )</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1780,19 +1761,19 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>webook.com</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1802,7 +1783,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Solution Architect / Technical Lead</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1817,19 +1798,19 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Jeeny</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1839,7 +1820,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1854,19 +1835,19 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D4DS</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1876,7 +1857,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Full Stack PHP Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1891,19 +1872,19 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ekar</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1913,7 +1894,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1928,7 +1909,3394 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr"/>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr"/>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr"/>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr"/>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr"/>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr"/>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Not Found</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>

--- a/job_listings.xlsx
+++ b/job_listings.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,2347 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Salary Range/Type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Job Title</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Job Description</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Job Posted Date</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>E-ComXpert,</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Lahore</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>United SEO,</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Prime BPO,</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>, Pakistan</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PHP / Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RSFSOFT,</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lahore</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>PHP / Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>EZ Services,</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>, Pakistan</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Flutter / Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Custom Software Pvt Limited,</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lahore</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>I4 EIT Solutions,</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lahore</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Senior Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Viral Webbs,</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Islamabad</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>PHP Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Zoom Digital,</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Lahore</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Senior Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Nessovo,</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Lahore</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>PHP / Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>KBK Electronics Pvt Ltd,</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Lahore</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sr. Web Developer (Laravel)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Prime BPO,</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>, Pakistan</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>PHP / Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Tech Funnel,</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sialkot</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>PHP Developer</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5 Point 12 Limited,</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Senior PHP/ Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>RatedSol Tech,</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dera Ghazi Khan</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Atlas Group,</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Application Engineer</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>RatedSol Tech,</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Dera Ghazi Khan</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>PHP / Laravel / WordPress Developer</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Zbee Tech,</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Rawalpindi</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Full Stack Web Developer</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>United SEO,</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Lead Product Developer</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Aptech Pakistan,</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Programming Languages Faculty</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Virtesys LLP</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Laravel Developer(Mid To Experienced Level)</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>pk Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Renexus Resource</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Rs 40,000 - Rs 90,000 a month</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Back End Developer</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Renexus Resource Group is looking for a Back end Developer to join our expert team and go with us to promote what is technologically achievable.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Renexus Resource</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>pk Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Digit Creators</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Web Developer intern</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>pk Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Legendesk Private Limited</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Rs 60,000 - Rs 70,000 a month</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>PHP Developer</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>We are looking for a PHP Developer responsible for managing back-end services and the interchange of data between the server and the users.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Legendesk Private Limited</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>pk Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>The Cress</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Rs 40,000 - Rs 50,000 a month</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Codeigniter and Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Must have command on (Codeigniter) and(Laravel).
+Develop, record, and maintain cutting-edge web-based PHP applications on portal plus premium service platforms.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>The Cress</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>pk Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>One Click</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Junior PHP Laravel Developer- (Morning Shift+Office-Based)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>OneClick, a Multinational Agency with branches in Karachi and Dubai, is seeking a talented and detail-oriented Junior PHP/Laravel developer to join its…</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>One Click</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>pk Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Aptech Metro Star Gate</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Rs 35,000 a month</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Trainer</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>If you are enthusiastic and eager then you are at the right post!
+Aptech Metro Star Gate is looking for a Trainer who is passionate about learning and teaching.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Aptech Metro Star Gate</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>pk Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AlgoRepublic Private limited</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Rs 30,000 - Rs 40,000 a month</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Full Stack Web Developer Intern</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Seeking a motivated and talented full Stack Web Developer Intern to join our dynamic team.
+As an intern, you will have the opportunity to work on real-world…</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>AlgoRepublic Private limited</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>pk Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>JoyBox Pakistan</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Rs 60,000 - Rs 80,000 a month</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Mid-Level PHP Laravel Developer at Joybox</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Mid-Level PHP Laravel Developer at Joybox*.
+Are you a skilled PHP developer with experience in Laravel looking to take your career to the next level?</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>JoyBox Pakistan</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>pk Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Minhasoft Inc.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Rs 50,000 - Rs 60,000 a month</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>We are seeking a skilled and experienced Senior Laravel Developer to join our development team.
+The Senior Laravel Developer will be responsible for designing,…</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Minhasoft Inc.</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>pk Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Devoppia Pvt. Ltd.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>We are Looking for PHP/Laravel Developers</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>pk Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Your App Hero</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Junior Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>pk Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MS GLOBAL</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Rs 40,000 - Rs 70,000 a month</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Backend Developer-Mid Level</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>MS Global Inc. is having exciting opportunities for the LARAVEL DEVELOPERS (BACK-END DEVELOPER) to work and grow their career with our Production Unit in…</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>MS GLOBAL</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>pk Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ustaad.pk</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>PHP Laravel Developers Jobs in Karachi</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>pk Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>JoyBox Pakistan</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Rs 80,000 - Rs 130,000 a month</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Senior Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>We are seeking a talented Senior Laravel Developer to take a leading role in the development and maintenance of our web applications.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>JoyBox Pakistan</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>pk Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>YaaraDigi Media</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Senior Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>True Data Software</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Laravel developers</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Codenia Technologies</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Noida, Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Laravel Developer - 1 year</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Super Cluster</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Codelattice</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>PHP Laravel &amp; Vue.js Developer</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Fexle InfoTech</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Remote in Noida, Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Remote Laravel Developer (upto 3 years)</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Infosec Ventures</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Gurugram, Haryana</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Software Development Engineers (Node/Laravel/Vue)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BigShyft</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Productsup</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Remote in Hyderabad, Telangana</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Senior Backend Engineer</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Kappsoft</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>PHP Developer(with LARAVEL frame work)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>SynapseIndia</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Noida, Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Sr. Software Engineer (CodeIgniter and Laravel)</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Geekyants</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Sundew</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Sr. PHP Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Medishala</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Patna, Bihar</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Senior Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Getinz</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Remote in Bengaluru, Karnataka</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Fullstack(PHP&amp;reactjs)_GCMS_Remote (Remote)</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Cignes Business Solutions</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Senior PHP Developer (Vacancy 2)</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Talent Pal</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Senior PHP Developer (Vacancy 2) - Cignes Business Solutions</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>webook.com</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Senior Backend Engineer - Laravel</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Infosysta</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Back-End - Front-end Developers - Only Saudi Nationals</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Arabic Computer Systems</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>PHP Developer</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Salla</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>مكة</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Senior Backend Engineer - Laravel</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Salla</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Tech Lead ( Laravel )</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>webook.com</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Solution Architect / Technical Lead</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ekar</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Jeeny</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>D4DS</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Full Stack PHP Developer</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Salla</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>جدة</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Software Engineering Manager ( Payment - Fintech )</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/job_listings.xlsx
+++ b/job_listings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,44 +473,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>E-ComXpert,</t>
+          <t>House of Business Machines Private Limited</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Laravel Developer</t>
+          <t>NET Developer</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>Design and develop software solutions using Microsoft technologies, with a salary range of 5000 to 6000 Qatari Riyal (QR) per month plus medical benefits, visa,</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>House of Business Machines Private Limited</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rozee.pk</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>United SEO,</t>
+          <t>The Career Shell</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -520,723 +520,644 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Laravel Developer</t>
+          <t>Dot Net Developer</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>Dot net Developer: 2 years (Required).
+This is a full-time on-site role for a Dotnet Developer.
+The Dotnet Developer will be responsible for software</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>The Career Shell</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rozee.pk</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Prime BPO,</t>
+          <t>NorthBay Solutions</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>, Pakistan</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>PHP / Laravel Developer</t>
+          <t>NET Developer</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>NET Developer with strong analytical skills and a keen interest in backend development, particularly in parsers.
+Strong analytical and problem-solving skills.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>NorthBay Solutions</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rozee.pk</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RSFSOFT,</t>
+          <t>Eurosoft Tech Private Limited</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>PHP / Laravel Developer</t>
+          <t>Senior DOT Net Developer</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>Responsible for development and maintenance of both current and future based applications.
+Expert on the following domains: server-side web dev, client-side web</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>Eurosoft Tech Private Limited</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rozee.pk</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EZ Services,</t>
+          <t>Verudix</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>, Pakistan</t>
+          <t>Hyderabad</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Flutter / Laravel Developer</t>
+          <t>.NET Developers</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rozee.pk</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Custom Software Pvt Limited,</t>
+          <t>Nextogen</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Hyderabad</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Laravel Developer</t>
+          <t>Junior .Net Developer</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rozee.pk</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>I4 EIT Solutions,</t>
+          <t>AlgoRepublic Private limited</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Islamabad</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Rs 100,000 a month</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Senior Laravel Developer</t>
+          <t xml:space="preserve"> Net Developer  Interne</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>.net developer: 2 years (Required).
+Must have at least two years of experience developing and maintaining applications using ASP.
+NET MVC 5 with Razor syntax.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>AlgoRepublic Private limited</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rozee.pk</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Viral Webbs,</t>
+          <t>EvolversTech</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Islamabad</t>
+          <t>Lahore</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Rs 80,000 - Rs 130,000 a month</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PHP Laravel Developer</t>
+          <t>DotNet Developer Net Developer</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>NET Developer, you will work alongside a team of experienced developers to design, develop, and maintain software solutions that meet our clients needs.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>EvolversTech</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rozee.pk</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Zoom Digital,</t>
+          <t>InfoTech Group</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Senior Laravel Developer</t>
+          <t>Junior Developer (.NET)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rozee.pk</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nessovo,</t>
+          <t>RED CORAL SERVICES</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>PHP / Laravel Developer</t>
+          <t>NET Developer</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>NET Developer with expertise in C .
+NET, JavaScript (React, Next.js), SQL Server, and MVCCore frameworks.
+E-commerce knowledge is advantageous.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>RED CORAL SERVICES</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rozee.pk</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KBK Electronics Pvt Ltd,</t>
+          <t>Logic Powered Solutions</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Islamabad</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sr. Web Developer (Laravel)</t>
+          <t>Dot Net Developer</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>NET Developer, you will be responsible for designing, developing, and maintaining software applications using the Microsoft .</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>Logic Powered Solutions</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rozee.pk</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Prime BPO,</t>
+          <t>AL FAROOQ ENTERPRISES</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>, Pakistan</t>
+          <t>Islamabad</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>PHP / Laravel Developer</t>
+          <t>Senior NET Full Stack Developer</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>Bachelors Degree in Computer Science (or related field of study).
+7 years of programming experience.
+Experience in Object-Oriented Design (OOD), .</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>AL FAROOQ ENTERPRISES</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rozee.pk</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tech Funnel,</t>
+          <t>TECHNEXIA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sialkot</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Rs 30,000 a month</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>PHP Developer</t>
+          <t>ASPnet Developer</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>Asp.NET Developer  Future leadership training Program.
+Our Future Leadership Training Program for .
+NET Developers is designed to cultivate emerging talent</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>TECHNEXIA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rozee.pk</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5 Point 12 Limited,</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>Horizon Technologies</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Senior PHP/ Laravel Developer</t>
+          <t>NET Developer</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>You will play a key role in designing and implementing complex software solutions, collaborating with team members.
+2-4 years of hands-on experience in .</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>Horizon Technologies</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rozee.pk</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RatedSol Tech,</t>
+          <t>techenabled solutions</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dera Ghazi Khan</t>
+          <t>Islamabad</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Senior NET Full Stack Developer</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>.net core development: 7 years (Required).
+Bachelors Degree in Computer Science (or related field of study).
+7 years of programming experience.</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>techenabled solutions</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rozee.pk</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Atlas Group,</t>
+          <t>United Nations Pakistan</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Karachi</t>
+          <t>Islamabad</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Not specified</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Application Engineer</t>
+          <t>Protocol Assistant</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rozee.pk</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>RatedSol Tech,</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Dera Ghazi Khan</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Not specified</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>PHP / Laravel / WordPress Developer</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Not Defined!</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Not Defined!</t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rozee.pk</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Zbee Tech,</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Rawalpindi</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Not specified</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Full Stack Web Developer</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Not Defined!</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Not Defined!</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rozee.pk</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>United SEO,</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Karachi</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Not specified</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Lead Product Developer</t>
-        </is>
-      </c>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rozee.pk</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Aptech Pakistan,</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Karachi</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Not specified</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Programming Languages Faculty</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Not Defined!</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Not Defined!</t>
-        </is>
-      </c>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rozee.pk</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Virtesys LLP</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Karachi</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Laravel Developer(Mid To Experienced Level)</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
           <t>pk Indeed</t>
@@ -1244,36 +1165,17 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Renexus Resource</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Karachi</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Rs 40,000 - Rs 90,000 a month</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Back End Developer</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Renexus Resource Group is looking for a Back end Developer to join our expert team and go with us to promote what is technologically achievable.</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Renexus Resource</t>
-        </is>
-      </c>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
           <t>pk Indeed</t>
@@ -1281,26 +1183,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Digit Creators</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Karachi</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>Not Defined</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Web Developer intern</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>Not Defined</t>
@@ -1318,34 +1208,22 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Legendesk Private Limited</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Karachi</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Rs 60,000 - Rs 70,000 a month</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PHP Developer</t>
-        </is>
-      </c>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>We are looking for a PHP Developer responsible for managing back-end services and the interchange of data between the server and the users.</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Legendesk Private Limited</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1355,35 +1233,22 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>The Cress</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Karachi</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Rs 40,000 - Rs 50,000 a month</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Codeigniter and Laravel Developer</t>
-        </is>
-      </c>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Must have command on (Codeigniter) and(Laravel).
-Develop, record, and maintain cutting-edge web-based PHP applications on portal plus premium service platforms.</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>The Cress</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1393,36 +1258,12 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>One Click</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Karachi</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Full-time</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Junior PHP Laravel Developer- (Morning Shift+Office-Based)</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>OneClick, a Multinational Agency with branches in Karachi and Dubai, is seeking a talented and detail-oriented Junior PHP/Laravel developer to join its…</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>One Click</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
           <t>pk Indeed</t>
@@ -1430,37 +1271,12 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Aptech Metro Star Gate</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Karachi</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Rs 35,000 a month</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Trainer</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>If you are enthusiastic and eager then you are at the right post!
-Aptech Metro Star Gate is looking for a Trainer who is passionate about learning and teaching.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Aptech Metro Star Gate</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>pk Indeed</t>
@@ -1468,37 +1284,17 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>AlgoRepublic Private limited</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Karachi</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Rs 30,000 - Rs 40,000 a month</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Full Stack Web Developer Intern</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Seeking a motivated and talented full Stack Web Developer Intern to join our dynamic team.
-As an intern, you will have the opportunity to work on real-world…</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>AlgoRepublic Private limited</t>
-        </is>
-      </c>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
           <t>pk Indeed</t>
@@ -1506,37 +1302,12 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>JoyBox Pakistan</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Karachi</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Rs 60,000 - Rs 80,000 a month</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Mid-Level PHP Laravel Developer at Joybox</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Mid-Level PHP Laravel Developer at Joybox*.
-Are you a skilled PHP developer with experience in Laravel looking to take your career to the next level?</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>JoyBox Pakistan</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>pk Indeed</t>
@@ -1544,35 +1315,22 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Minhasoft Inc.</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Karachi</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Rs 50,000 - Rs 60,000 a month</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Laravel Developer</t>
-        </is>
-      </c>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>We are seeking a skilled and experienced Senior Laravel Developer to join our development team.
-The Senior Laravel Developer will be responsible for designing,…</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Minhasoft Inc.</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1584,32 +1342,34 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Devoppia Pvt. Ltd.</t>
+          <t>PanaceaLogics</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Karachi</t>
+          <t>Rawalpindi</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Rs 25,000 a month</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>We are Looking for PHP/Laravel Developers</t>
+          <t>Net Developer Internship</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Net core Interns to work on A.
+Collaborate with internal teams to produce software design and architecture.
+Write clean, scalable code using .</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>PanaceaLogics</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1621,7 +1381,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Your App Hero</t>
+          <t>United Bank Limited</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1636,7 +1396,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Junior Laravel Developer</t>
+          <t>Senior Software Engineer - Dot Net</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1658,7 +1418,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MS GLOBAL</t>
+          <t>TECHNOSYS</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1668,22 +1428,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Rs 40,000 - Rs 70,000 a month</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Backend Developer-Mid Level</t>
+          <t>.Net Developer</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>MS Global Inc. is having exciting opportunities for the LARAVEL DEVELOPERS (BACK-END DEVELOPER) to work and grow their career with our Production Unit in…</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>MS GLOBAL</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1695,7 +1455,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ustaad.pk</t>
+          <t>360 Degree Human Capital solutions pvt ltd</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1705,22 +1465,24 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Full-time
+1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>PHP Laravel Developers Jobs in Karachi</t>
+          <t>Net Suite ERP functional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Net Suite Erp functional resource for support and implementation for fullpart time for US market.
+Job Types: Full-time, Part-time.</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>360 Degree Human Capital solutions pvt ltd</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1732,7 +1494,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>JoyBox Pakistan</t>
+          <t>K Compute Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1742,22 +1504,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Rs 80,000 - Rs 130,000 a month</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Senior Laravel Developer</t>
+          <t>Junior Software Developer Backend C# .Net</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>We are seeking a talented Senior Laravel Developer to take a leading role in the development and maintenance of our web applications.</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>JoyBox Pakistan</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1769,12 +1531,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>YaaraDigi Media</t>
+          <t>Atrule Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Multan</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1784,7 +1546,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Senior Laravel Developer</t>
+          <t>.NET Intern</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1799,19 +1561,19 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>True Data Software</t>
+          <t>360 Developers</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Islamabad</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1821,7 +1583,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Laravel developers</t>
+          <t>Internee Dot Net Developer</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1836,56 +1598,57 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Codenia Technologies</t>
+          <t>Syriza Company</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Noida, Uttar Pradesh</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Rs 30,000 - Rs 40,000 a month</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Laravel Developer - 1 year</t>
+          <t>ASP DOT NET WEB FORM DEVELOPER</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>We Required a Minimum at Least 2 year Experience.
+We are looking for a Dot Net developer to build software using languages and technologies of the .</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Syriza Company</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Super Cluster</t>
+          <t>HRCONSOL</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1895,7 +1658,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Laravel Developer</t>
+          <t>Sr. Software Developer (.Net, C#)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1910,19 +1673,19 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Codelattice</t>
+          <t>InvoByte</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Lahore</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1932,7 +1695,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>PHP Laravel &amp; Vue.js Developer</t>
+          <t>.NET Developer</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1947,19 +1710,19 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fexle InfoTech</t>
+          <t>Mold-Tek Technologies Ltd</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Remote in Noida, Uttar Pradesh</t>
+          <t>Hyderabad</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1969,7 +1732,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Remote Laravel Developer (upto 3 years)</t>
+          <t>Sr. C# .NET Developer (Back End)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1984,56 +1747,57 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Infosec Ventures</t>
+          <t>Agilosoft</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Gurugram, Haryana</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Software Development Engineers (Node/Laravel/Vue)</t>
+          <t>Software Engineer 0 to 1 year</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>The ideal candidate will be responsible for developing high-quality applications.
+They will also be responsible for designing and implementing testable and</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Agilosoft</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BigShyft</t>
+          <t>TPL Trakker Ltd</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bengaluru, Karnataka</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2043,7 +1807,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Software Engineer/.Net Developer</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2058,19 +1822,19 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Productsup</t>
+          <t>tarantula</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Remote in Hyderabad, Telangana</t>
+          <t>Hyderabad</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2080,7 +1844,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Senior Backend Engineer</t>
+          <t>.NET Developer</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2095,56 +1859,58 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Kappsoft</t>
+          <t>Aptech</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Rs 40,000 a month</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>PHP Developer(with LARAVEL frame work)</t>
+          <t>Faculty of NET</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>The ideal candidate will possess a profound understanding of .
+NET core as well as their respective applications.
+Related work experience would be an advance.</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Aptech</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SynapseIndia</t>
+          <t>Applivity Private limited</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Noida, Uttar Pradesh</t>
+          <t>Islamabad</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2154,7 +1920,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Sr. Software Engineer (CodeIgniter and Laravel)</t>
+          <t>.Net Developer Intern</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2169,93 +1935,97 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Geekyants</t>
+          <t>Stallions technologies</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bengaluru, Karnataka</t>
+          <t>Lahore</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Full-time
+1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Laravel Developer</t>
+          <t>NET Developer  Junior and MidLevel</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Experience should be more than 1.5 years.
+Experience in system architecture, software development, security, and DevOps.
+Hands on knowledge on MS .</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Stallions technologies</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sundew</t>
+          <t>Lal Technologies</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Rawalpindi</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Rs 80,000 - Rs 100,000 a month</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Sr. PHP Laravel Developer</t>
+          <t>NET DEVELOPER</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Design, build and maintain advanced applications for the Windows platform.
+Provide for and perform the maintenance, implementation, integration, test, and</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Lal Technologies</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Medishala</t>
+          <t>KHM Group</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Patna, Bihar</t>
+          <t>Lahore</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2265,7 +2035,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Senior Laravel Developer</t>
+          <t>Net Developer</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2280,19 +2050,19 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Getinz</t>
+          <t>MicroVision</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Remote in Bengaluru, Karnataka</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2302,7 +2072,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Fullstack(PHP&amp;reactjs)_GCMS_Remote (Remote)</t>
+          <t>.NET DEVELOPER</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2317,19 +2087,19 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>in Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Cignes Business Solutions</t>
+          <t>Wallero Technologies</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Hyderabad</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2339,7 +2109,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Senior PHP Developer (Vacancy 2)</t>
+          <t>Senior .Net Developer</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2354,93 +2124,94 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Talent Pal</t>
+          <t>Smart Placement</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Lahore</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Rs 60,000 - Rs 70,000 a month</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Senior PHP Developer (Vacancy 2) - Cignes Business Solutions</t>
+          <t>Dot Net Developer 4pm1am</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>I am hiring Dot Net Developer for my USA based company located in Lahore.
+Required Qualification: MastersBachelors degree in Computer Science.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Smart Placement</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>webook.com</t>
+          <t>Wall Soft Technology</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Senior Backend Engineer - Laravel</t>
+          <t>Full Stack Net MVC Developer</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>We are looking for full stock developer of ASP.</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Wall Soft Technology</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Infosysta</t>
+          <t>Indus Hospital &amp; Health Network</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2450,7 +2221,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Back-End - Front-end Developers - Only Saudi Nationals</t>
+          <t>Net Developer</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2465,56 +2236,58 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Arabic Computer Systems</t>
+          <t>JoyBox Pakistan</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>PHP Developer</t>
+          <t>Senior NET Developer</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Job Type: Full-Time, Onsite.
+Develop, test, and maintain applications using the .
+Collaborate with cross-functional teams to define, design, and ship new</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>JoyBox Pakistan</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Salla</t>
+          <t>mParsec</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>مكة</t>
+          <t>Islamabad</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2524,7 +2297,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Senior Backend Engineer - Laravel</t>
+          <t>Junior Dot Net Developer</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2539,93 +2312,96 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Salla</t>
+          <t>Computan</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Lahore</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Tech Lead ( Laravel )</t>
+          <t>Net Developer</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>3 plus years of web development experience in .NET.
+Net 6, C, Web APIs, Entity framework, SQL Server, JavaScript, jQuery, HTML5, and CSS3  Angular(Good to</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Computan</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>webook.com</t>
+          <t>A5 Solution</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Islamabad</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Full-time
+1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Solution Architect / Technical Lead</t>
+          <t>ASPNET Developer</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>In this role, youll play a key role in designing, developing, implementing, and maintaining robust web applications using ASP.
+NET MVCCore, Web API).</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>A5 Solution</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ekar</t>
+          <t>Star Technologies</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Lahore</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2635,7 +2411,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Senior Software Engineer</t>
+          <t>Junior Software Engineer (.Net)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2650,56 +2426,57 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Jeeny</t>
+          <t>10Pearls</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>StaffSenior Software Engineer NET MAUI</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>We are currently seeking talented and experienced .
+The talented individuals will be responsible for designing, developing, and maintaining cross-platform</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>10Pearls</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t>pk Indeed</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>D4DS</t>
+          <t>Coforge Ltd.</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Greater Noida, Uttar Pradesh</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2709,7 +2486,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Full Stack PHP Developer</t>
+          <t>.Net developer</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2724,42 +2501,4408 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t>in Indeed</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Salla</t>
+          <t>RSHIE Services</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
+          <t>Basavanagudi, Bengaluru, Karnataka</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>C#/.NET developer</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Virtusa</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Hybrid work in Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>.NET FSD</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>C-Metric Solutions</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Remote in Gandhinagar, Gujarat</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>.Net MVC Developers</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Cloud Kinetics</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Remote in Bengaluru, Karnataka</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>.Net Architect</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Uplers</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>.Net FullStack Developer (WFH)</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>BlackRock</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Hybrid work in Gurugram, Haryana</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>.Net Developer, Aladdin Engineering - Analyst</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Travayoo Cloud</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>.NET / MVC Developers</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Calpine Group</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Kochi, Kerala</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>C#.net Developer- Engineer</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>EMVEE Information Technologies</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>EMVEE210402 .NET with Microservices</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>multiply info solutions</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Jodhpur, Rajasthan</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Jr. DOT NET Developer</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Infomeck</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Ahmedabad, Gujarat</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Sr.NET Developer</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Vision Infotech</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Ahmedabad, Gujarat</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Sr .Net MVC With SQL Server</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>iTool Solutions</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Surat, Gujarat</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Dot Net Developer</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Arcgate</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Udaipur, Rajasthan</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>.NET Developers</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Creative Web Solutions</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>C# Dot Net Developer Junior</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Helius Technologies</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Backend .NET Developer</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Virtusa</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Hybrid work in Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>FSD .Net</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Stellar Innovations</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Sholinghur, Tamil Nadu</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>.Net Developer</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Capita</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Sr. Software Developer - .Net</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>RadGate Infotech</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Pune, Maharashtra</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>.NET</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Kansoft Solutions</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Fatehpura, Rajasthan</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>.Net Developers (MVC &amp; CORE)</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Capita</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Software Developer - .net</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>CAL4CARE</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Senior .Net Developers</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Helius Technologies</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>.NET Engineer</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>estrrado</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Technopark, Thiruvananthapuram, Kerala</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Asp.net Developer (Fresher)</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Cloud 9 Infosystems</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Junior .NET Developer</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Denali Software Solutions</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>.Net MVC Developers</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Great Developers Info Tech Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Noida, Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Software Developers (.NET )/Noida</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>SmartQ Bottle Lab Technologies Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Dot Net Developer</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>SunArc Technologies</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Studybase</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Bikaner, Rajasthan</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>C# .Net Web Developer</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>NetApp</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Software Engineer ( .Net Core, Cloud)</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Dreamz Group</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Lucknow, Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>.Net Developer</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Agasti Technologies</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Ahmadnagar, Maharashtra</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Jr. Dot Net Developer</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Xentel Technologies</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Kerala</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>DOT NET PROGRAMMER</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Gormalone</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Industrial Area , Lucknow, Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>.NET Developer (Backend)</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Yash Technologies</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Software Engineer - .Net</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Helius Technologies</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>.NET Software Engineer</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Helius Technologies</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Fullstack .NET Developer</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>OSP Labs</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>.NET Developer (1-5 yrs)</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Miracle Software Systems</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>.NET Developer</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Online Weaver</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Haridwar, Uttarakhand</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Software Developer .Net Technologies</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Baker Hughes</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Kochi, Kerala</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Software Engineer - C# .NET Core</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Virtusa</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Hybrid work in Andhra Pradesh</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>.Net Angular</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Société Générale</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Specialist Software Engineer Dot net- H/F/X</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Infosys</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>.Net Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Persistent Systems</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>.Net Lead</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Capita</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>.Net Lead Developer</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>WebSenor</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Gurugram, Haryana</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>ASP.NET Developers</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Ailoitte Technologies</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Full Stack Dot Net Developers</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Solarius Solutions</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>.NET Programmer</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>EMVEE Information Technologies</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>EMVEE210503 .Net &amp; Java Full Stack (Sr. Developers - Architects)</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Everex Infotech</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Gandhinagar, Gujarat</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Dot Net Developer/Asp Developer</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Infoveave</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Karnataka</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>.NET DEVELOPER</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>EPAM Systems</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Hybrid work in India</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Middle .NET Developer</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Cbsl Group</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Gurugram, Haryana</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Dot Net Develeoper</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>intellinez</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Mohali, Punjab</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Dot Net Developer</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>IT Path Solutions</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Ahmedabad, Gujarat</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Asp.net + JS Developer</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Hewlett Packard</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Bengaluru, Karnataka</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Microsoft Full Stack Developer ( .Net , C#)</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>in Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Hackbal Business Solutions</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>ASP.net Developer</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>KBR</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>الخبر</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Dot Net Programming Developer</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>D360 Bank</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Software Engineer - Dot Net</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>FAO</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>المملكة العربية السعودية</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Programme Assistant</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>British International School Riyadh (BISR)</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Design Technology and Art Technician - Al Waha Campus - Required August 2024</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>PradeepIT Consulting Services</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Senior .NET Lead</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>شركة أجمل التجارية</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>بائعة عطور</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>KBR</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>الخبر</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>AVEVA AIM (NET) Administrator</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Nahdi</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>خميس مشيط</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Endodontics Registrar-(Khamis Mushait)-(203021)</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>British International School Riyadh (BISR)</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Senior School Mathematics Teacher - DQ Campus - Required for August 2024</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Egis</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Graphic Designer M/F</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>D360 Bank</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Senior Software Engineer - Dot Net</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Nahdi</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>خميس مشيط</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>ER Physician-(Khamis Mushait)</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Egis</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Quantity Surveyor M/F</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Nahdi</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>خميس مشيط</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Physiotherapist-(Khamis Mushait)</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>British International School Riyadh (BISR)</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Supply Teaching Assistants - Riyadh Campuses</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>German Medicine Net</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>المملكة العربية السعودية</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>gynaecology/IVF</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>m2r Education</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>المملكة العربية السعودية</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Economics and Political Science Tutor (male) - Riyadh VVIP Client</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>شركة ركن المجرة</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>مندوب مبيعات</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Nahdi</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>خميس مشيط</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Laboratory Technique Specialist-(Khamis Mushait)</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>British International School Riyadh (BISR)</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Senior School English Teacher - Al Waha Campus - Required August 2024</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Egis</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Procurement Specialist M/F</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Thales</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
           <t>جدة</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>Software Engineering Manager ( Payment - Fintech )</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Software Systems Engineer</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Egis</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Document Controller (Saudi National) M/F</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Parsons</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>GIS Analyst</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>British International School Riyadh (BISR)</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Learning Support Assistant - DQ Campus - Required August 2024</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>German Medicine Net</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>المملكة العربية السعودية</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Assistant Director of Nursing Required</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Egis</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Architecture Inspector</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>IHCC</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>جدة</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>N5 Now</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>المملكة العربية السعودية</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Desarrollador Fullstack</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Egis</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Architecture Inspector</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Egis</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Senior Architect M/F</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Baker Hughes</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>الظهران</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Field Specialist - Artificial Lift Systems</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Alpin Limited</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Environmental Consultant - Riyadh, KSA</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Excrin Think Labs</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>المملكة العربية السعودية</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>genesis system</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>مسؤول مشتريات</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>OTO</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Partnership Executive</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>British International School Riyadh (BISR)</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>IT Systems Engineer - Whole School - Required Immediately</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>IHCC</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>جدة</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Islamic Development Bank</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>جدة</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Data Visualization &amp;Analytics Specialist</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>German Medicine Net</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>المملكة العربية السعودية</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Assistant Director of Nursing Required</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>N5 Now</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>المملكة العربية السعودية</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Desarrollador Fullstack</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Nahdi</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>خميس مشيط</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Radiology Technique Specialist-(Khamis Mushait)</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>German Medicine Net</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>المملكة العربية السعودية</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Head Nurses Required</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>British International School Riyadh (BISR)</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Supply Teachers – Al Hamra/DQ/Salwa/Taif/Tabuk Campus</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Baker Hughes</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>الدمام</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Manufacturing Specialist - Production Supervision</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>شركة أجمل التجارية</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>جدة</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>مسئول علاقات عامة</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Marktine Technology Solutions</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Senior Developer</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>ABB</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Country Communications Manager, Saudi Arabia &amp; United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Egis</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>العلا</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Commercial &amp; Contracts Director M/F</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Egis</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>تبوك</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Design Manager M/F</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Nahdi</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>المملكة العربية السعودية</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Guest Care Representative</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Bunge</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Trade Contract Administration Specialist</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Creatio</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Solutions Consultant</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Full Stack Developer</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>KAUST</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ثول</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>FACULTY POSITIONS IN SUSTAINABILITY SCIENCE AND ENGINEERING</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Mace</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Personal Assistant</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>genesis system</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>موظف دعم اداري</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>British International School Riyadh (BISR)</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>School Nurse (Supply) – Riyadh Campuses</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>sa Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Fisher Investments Europe</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>الرياض</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Investor Responsibility &amp; Engagement Analyst - Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
         <is>
           <t>sa Indeed</t>
         </is>

--- a/job_listings.xlsx
+++ b/job_listings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G181"/>
+  <dimension ref="A1:G193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>House of Business Machines Private Limited</t>
+          <t>MALL DEVELOPERS PVT LTD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,17 +488,18 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NET Developer</t>
+          <t>Laravel Developers Remote Job For Romania</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Design and develop software solutions using Microsoft technologies, with a salary range of 5000 to 6000 Qatari Riyal (QR) per month plus medical benefits, visa,</t>
+          <t>Masters or Bachelors degree in Computer Science, Engineering, or a related field (or equivalent work experience).
+Must be highly fluent in English.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>House of Business Machines Private Limited</t>
+          <t>MALL DEVELOPERS PVT LTD</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -510,7 +511,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The Career Shell</t>
+          <t>Ibix Global Tech</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -525,19 +526,18 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Dot Net Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Dot net Developer: 2 years (Required).
-This is a full-time on-site role for a Dotnet Developer.
-The Dotnet Developer will be responsible for software</t>
+          <t>Ibix Global is looking Laravel Developer to build web applications.
+In this role, you will design and create projects using the Laravel framework and PHP, and</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>The Career Shell</t>
+          <t>Ibix Global Tech</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -549,7 +549,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NorthBay Solutions</t>
+          <t>Experts Communication</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -559,23 +559,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Rs 50,000 - Rs 60,000 a month</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NET Developer</t>
+          <t>Web DeveloperOnsite Male</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NET Developer with strong analytical skills and a keen interest in backend development, particularly in parsers.
-Strong analytical and problem-solving skills.</t>
+          <t>We are seeking a talented and experienced Web Developer with a strong background in JavaScript, HTML, CSS, and PHP Development.
+Shift: 6:30 PM to 3:30 AM.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NorthBay Solutions</t>
+          <t>Experts Communication</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -587,7 +587,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Eurosoft Tech Private Limited</t>
+          <t>Virtesys LLP</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -597,23 +597,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Senior DOT Net Developer</t>
+          <t>Laravel Developer(Mid To Experienced Level)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Responsible for development and maintenance of both current and future based applications.
-Expert on the following domains: server-side web dev, client-side web</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Eurosoft Tech Private Limited</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -625,32 +624,33 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Verudix</t>
+          <t>Iplex</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>.NET Developers</t>
+          <t>PHP  Laravel</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>We are looking for a PHP Laravel Developer to join our technical team.
+Knowledge and working experience in object-oriented PHP programming.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Iplex</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -662,12 +662,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Nextogen</t>
+          <t>ustaad.pk</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -677,7 +677,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Junior .Net Developer</t>
+          <t>PHP Laravel Developers Jobs in Karachi</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -699,7 +699,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AlgoRepublic Private limited</t>
+          <t>Gubloo Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -709,24 +709,25 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Rs 100,000 a month</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Net Developer  Interne</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>.net developer: 2 years (Required).
-Must have at least two years of experience developing and maintaining applications using ASP.
-NET MVC 5 with Razor syntax.</t>
+          <t>Shift: Evening (6:00 PM to 2:00 AM).
+Salary Package: RS 150,000 to 200,000-.
+Company: Gubloo Technologies Pvt. Ltd.
+Double Compensation on Public Holidays.</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AlgoRepublic Private limited</t>
+          <t>Gubloo Technologies Pvt Ltd</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -738,32 +739,34 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EvolversTech</t>
+          <t>Global Clicks</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Rs 80,000 - Rs 130,000 a month</t>
+          <t>Rs 25,000 - Rs 30,000 a month</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DotNet Developer Net Developer</t>
+          <t>Junior PhP and laravel</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>NET Developer, you will work alongside a team of experienced developers to design, develop, and maintain software solutions that meet our clients needs.</t>
+          <t>Knowledge of object-oriented PHP programming.
+Strong knowledge of the Laravel framework.
+Understanding the fully synchronous behavior of PHP.</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>EvolversTech</t>
+          <t>Global Clicks</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -775,7 +778,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>InfoTech Group</t>
+          <t>Eureka web solutions &amp; IT Nexer LLC</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -785,22 +788,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Rs 60,000 - Rs 80,000 a month</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Junior Developer (.NET)</t>
+          <t>PHP Laravel  CI Developer</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Minimum 1 years experience in PHPlaravelWordPress Development with customizations.
+Looking for an experienced and passionate Mid level PHPLaravel ci</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Eureka web solutions  IT Nexer LLC</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -812,34 +816,33 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RED CORAL SERVICES</t>
+          <t>Azzurri Tech</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Karachi</t>
+          <t>Lahore</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Rs 60,000 - Rs 90,000 a month</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NET Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NET Developer with expertise in C .
-NET, JavaScript (React, Next.js), SQL Server, and MVCCore frameworks.
-E-commerce knowledge is advantageous.</t>
+          <t>We are seeking a talented Laravel developer to join our team.
+As a Laravel developer, you will be responsible for developing and maintaining web applications</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>RED CORAL SERVICES</t>
+          <t>Azzurri Tech</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -851,12 +854,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Logic Powered Solutions</t>
+          <t>Horizon Ventures Pvt Ltd</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Islamabad</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -866,17 +869,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dot Net Developer</t>
+          <t>Laravel Expert</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NET Developer, you will be responsible for designing, developing, and maintaining software applications using the Microsoft .</t>
+          <t>Developing front-end website architecture.
+Designing user interactions on web pages.
+Developing back-end website applications.
+Experience: 1 year to 4 years.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Logic Powered Solutions</t>
+          <t>Horizon Ventures Pvt Ltd</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -888,34 +894,32 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AL FAROOQ ENTERPRISES</t>
+          <t>Aptech Learning, Federal B. Area Center</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Islamabad</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Senior NET Full Stack Developer</t>
+          <t>Faculty Member</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bachelors Degree in Computer Science (or related field of study).
-7 years of programming experience.
-Experience in Object-Oriented Design (OOD), .</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>AL FAROOQ ENTERPRISES</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -927,7 +931,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>TECHNEXIA</t>
+          <t>Sys Borg Tech</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -937,24 +941,23 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rs 30,000 a month</t>
+          <t>Rs 25,000 - Rs 30,000 a month</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>ASPnet Developer</t>
+          <t>Laravel  CodeIgniter Developer</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Asp.NET Developer  Future leadership training Program.
-Our Future Leadership Training Program for .
-NET Developers is designed to cultivate emerging talent</t>
+          <t>SysBorgTech is a dynamic and innovative IT company dedicated to delivering cutting-edge solutions to our clients.
+Pay: Rs25,000.00 - Rs30,000.00 per month.</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TECHNEXIA</t>
+          <t>Sys Borg Tech</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -966,7 +969,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Horizon Technologies</t>
+          <t>Eeze Solutions</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -976,23 +979,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NET Developer</t>
+          <t>Junior Laravel develpoer</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>You will play a key role in designing and implementing complex software solutions, collaborating with team members.
-2-4 years of hands-on experience in .</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Horizon Technologies</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1004,34 +1006,32 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>techenabled solutions</t>
+          <t>LAMTANS GROUP OF COMPANIES</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Islamabad</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Senior NET Full Stack Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>.net core development: 7 years (Required).
-Bachelors Degree in Computer Science (or related field of study).
-7 years of programming experience.</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>techenabled solutions</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1043,12 +1043,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>United Nations Pakistan</t>
+          <t>Vtech</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Islamabad</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Protocol Assistant</t>
+          <t>Backend Developer | PHP Laravel Developer</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1095,7 +1095,12 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
@@ -1106,22 +1111,10 @@
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>pk Indeed</t>
@@ -1167,15 +1160,22 @@
     <row r="23">
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>
-</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>pk Indeed</t>
@@ -1185,22 +1185,15 @@
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
           <t>pk Indeed</t>
@@ -1235,22 +1228,15 @@
     <row r="26">
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
+          <t>
+</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
           <t>pk Indeed</t>
@@ -1262,7 +1248,12 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>
+</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
@@ -1273,10 +1264,22 @@
     <row r="28">
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
       <c r="G28" t="inlineStr">
         <is>
           <t>pk Indeed</t>
@@ -1304,10 +1307,22 @@
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr">
         <is>
           <t>pk Indeed</t>
@@ -1317,22 +1332,10 @@
     <row r="31">
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
           <t>pk Indeed</t>
@@ -1342,34 +1345,33 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PanaceaLogics</t>
+          <t>Hire The Consultant</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Rawalpindi</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Rs 25,000 a month</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Net Developer Internship</t>
+          <t>Fullstack PHP Developer US Time  Onsite</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Net core Interns to work on A.
-Collaborate with internal teams to produce software design and architecture.
-Write clean, scalable code using .</t>
+          <t>Write well-designed, testable, efficient code by using best software development practices.
+Create website layoutuser interface by using standard HTMLCSS</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>PanaceaLogics</t>
+          <t>Hire The Consultant</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1381,7 +1383,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>United Bank Limited</t>
+          <t>JoyBox Pakistan</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1396,7 +1398,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - Dot Net</t>
+          <t>Mid-Level PHP Laravel Developer at Joybox</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1418,7 +1420,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TECHNOSYS</t>
+          <t>MS GLOBAL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1433,7 +1435,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>.Net Developer</t>
+          <t>Backend Developer-Mid Level</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1455,7 +1457,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>360 Degree Human Capital solutions pvt ltd</t>
+          <t>Devronix Solutions</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1464,62 +1466,62 @@
         </is>
       </c>
       <c r="C35" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Php Wordpress Internee</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Not Defined</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>pk Indeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>HATechnologies PVT LTD</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Islamabad</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>Full-time
 1</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Net Suite ERP functional</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Net Suite Erp functional resource for support and implementation for fullpart time for US market.
-Job Types: Full-time, Part-time.</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>360 Degree Human Capital solutions pvt ltd</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>pk Indeed</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>K Compute Pvt. Ltd.</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Karachi</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Not Defined</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Junior Software Developer Backend C# .Net</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>The ideal candidate will have 2-3 years of experience in web development using the Laravel framework.
+You will be responsible for developing, maintaining, and</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>HATechnologies PVT LTD</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1531,32 +1533,34 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Atrule Technologies Pvt Ltd</t>
+          <t>TradeWheelcom</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Multan</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Rs 80,000 - Rs 100,000 a month</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>.NET Intern</t>
+          <t>Senior Web Developer</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Front-end framework experience (Bootstrap, Tailwind CSS).
+Basic understanding of PHP (Laravel) and MySQL.
+Familiarity with Git version control.</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>TradeWheelcom</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1568,12 +1572,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>360 Developers</t>
+          <t>Meri Sehat</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Islamabad</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1583,7 +1587,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Internee Dot Net Developer</t>
+          <t>Mid Level PHP Developer</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1605,7 +1609,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Syriza Company</t>
+          <t>QSolutions</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1615,23 +1619,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Rs 30,000 - Rs 40,000 a month</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ASP DOT NET WEB FORM DEVELOPER</t>
+          <t>PHP Developer</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>We Required a Minimum at Least 2 year Experience.
-We are looking for a Dot Net developer to build software using languages and technologies of the .</t>
+          <t>The ideal candidate will be working with a local and offshore team in the USA on a product that requires constant innovation and new technology upgrades on a</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Syriza Company</t>
+          <t>QSolutions</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1643,7 +1646,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HRCONSOL</t>
+          <t>Parallax Technologies</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1653,22 +1656,23 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Rs 60,000 - Rs 100,000 a month</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sr. Software Developer (.Net, C#)</t>
+          <t>Senior PHP Laravel Developer</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>PHP  Laravel developer duties and responsibilities.
+Develop, record and maintain cutting edge web-based PHP applications on portal plus premium service</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Parallax Technologies</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1680,32 +1684,33 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>InvoByte</t>
+          <t>Pixels Soft</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Rs 60,000 - Rs 120,000 a month</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>.NET Developer</t>
+          <t>PHP and Laravel Developer remotely Females</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>As a PHP and Laravel Developer at Pixels soft, you will play a key role in developing robust web applications and backend systems.
+Job Type: Full-time remote .</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Pixels Soft</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1717,12 +1722,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Mold-Tek Technologies Ltd</t>
+          <t>4 Ace Technologies</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1732,7 +1737,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sr. C# .NET Developer (Back End)</t>
+          <t>PHP Developer (Junior)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1754,7 +1759,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Agilosoft</t>
+          <t>JoyBox Pakistan</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1764,23 +1769,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Rs 80,000 - Rs 130,000 a month</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Software Engineer 0 to 1 year</t>
+          <t>Senior Laravel Developer</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>The ideal candidate will be responsible for developing high-quality applications.
-They will also be responsible for designing and implementing testable and</t>
+          <t>As a Senior Laravel Developer, you will be responsible for designing, coding, and testing Laravel-based solutions, as well as providing technical guidance and</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Agilosoft</t>
+          <t>JoyBox Pakistan</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1792,7 +1796,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TPL Trakker Ltd</t>
+          <t>Amiz(Private) Limited</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1807,7 +1811,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Software Engineer/.Net Developer</t>
+          <t>Senior PHP Developer (Full Time / Part Time) Remote</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1829,32 +1833,32 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>tarantula</t>
+          <t>Minhasoft Inc</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Rs 50,000 - Rs 60,000 a month</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>.NET Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>The Senior Laravel Developer will be responsible for designing, developing, and maintaining high-quality web applications using the Laravel framework.</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Minhasoft Inc</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1866,7 +1870,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aptech</t>
+          <t>Zenyst</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1876,24 +1880,23 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Rs 40,000 a month</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Faculty of NET</t>
+          <t>Senior PHP Laravel Developer</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>The ideal candidate will possess a profound understanding of .
-NET core as well as their respective applications.
-Related work experience would be an advance.</t>
+          <t>Timings : 09:00 PM to 06:00 AM (MON to FRI).
+As a PHP  Laravel Developer, you will be responsible for developing and maintaining high-quality web</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Aptech</t>
+          <t>Zenyst</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1905,32 +1908,32 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Applivity Private limited</t>
+          <t>Digitechtic</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Islamabad</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>.Net Developer Intern</t>
+          <t>Software Development Engineer</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>The PHP Developer will be responsible for back-end web development, object-oriented programming (OOP), front-end development, software development, and</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Digitechtic</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -1942,35 +1945,34 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Stallions technologies</t>
+          <t>Apex Tech World</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Full-time
-1</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>NET Developer  Junior and MidLevel</t>
+          <t>Backend Developer</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Experience should be more than 1.5 years.
-Experience in system architecture, software development, security, and DevOps.
-Hands on knowledge on MS .</t>
+          <t>Proficiency in HTML, JavaScript, CSS, and PHP Laravel framework.
+Solid understanding of backend development principles and practices.
+1 to 3 years (Required).</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Stallions technologies</t>
+          <t>Apex Tech World</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -1982,33 +1984,32 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Lal Technologies</t>
+          <t>Soft Access LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Rawalpindi</t>
+          <t>Lahore</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Rs 80,000 - Rs 100,000 a month</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NET DEVELOPER</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Design, build and maintain advanced applications for the Windows platform.
-Provide for and perform the maintenance, implementation, integration, test, and</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Lal Technologies</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2020,32 +2021,32 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>KHM Group</t>
+          <t>Coding PK</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Net Developer</t>
+          <t>Senior Laravel Developer</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>As a Senior Laravel Developer at Coding PK, you will play a key role in architecting, developing, and maintaining high-quality web applications using the</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Coding PK</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2057,7 +2058,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MicroVision</t>
+          <t>Zindagi Trust</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2067,22 +2068,23 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>.NET DEVELOPER</t>
+          <t>Full Stack Developer Laravel</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Active participation in all UI  UX decisions.
+Contribute actively to the continuous development of process and product.</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Zindagi Trust</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2094,32 +2096,32 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Wallero Technologies</t>
+          <t>HR POD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Hyderabad</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Senior .Net Developer</t>
+          <t>PHP  Laravel Developer 34years experience</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Leveraging your expertise in Laravel for Vue.js, you will drive the creation of exceptional digital experiences that delight our users and clients.</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>HR POD</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2131,33 +2133,32 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Smart Placement</t>
+          <t>QBS CO Pvt Ltd</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Rs 60,000 - Rs 70,000 a month</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Dot Net Developer 4pm1am</t>
+          <t>Sr PHP Laravel Developer</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>I am hiring Dot Net Developer for my USA based company located in Lahore.
-Required Qualification: MastersBachelors degree in Computer Science.</t>
+          <t>As a Senior Developer, you will be responsible for leading the development of robust and scalable web applications using the PHP Laravel framework.</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Smart Placement</t>
+          <t>QBS CO Pvt Ltd</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2169,7 +2170,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Wall Soft Technology</t>
+          <t>Your App Hero</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2179,22 +2180,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Full Stack Net MVC Developer</t>
+          <t>PHP Developer (Junior)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>We are looking for full stock developer of ASP.</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Wall Soft Technology</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2206,7 +2207,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Indus Hospital &amp; Health Network</t>
+          <t>Cloud Lab</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2221,7 +2222,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Net Developer</t>
+          <t>Laravel / PhP Developer - Full time ( KHI OFFICE )</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2243,7 +2244,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>JoyBox Pakistan</t>
+          <t>The Cress</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2253,24 +2254,23 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Rs 40,000 - Rs 50,000 a month</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Senior NET Developer</t>
+          <t>Codeigniter and Laravel Developer</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Job Type: Full-Time, Onsite.
-Develop, test, and maintain applications using the .
-Collaborate with cross-functional teams to define, design, and ship new</t>
+          <t>Must have command on (Codeigniter) and(Laravel).
+Develop, record, and maintain cutting-edge web-based PHP applications on portal plus premium service platforms.</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>JoyBox Pakistan</t>
+          <t>The Cress</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2282,32 +2282,34 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>mParsec</t>
+          <t>The Creatics</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Islamabad</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Rs 50,000 - Rs 100,000 a month</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Junior Dot Net Developer</t>
+          <t>PHP developer</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Has good experience in Laravel &amp; Vue.js.
+Strong Knowledge in HTML 5 LessCSS Bootstrap and JavaScript.
+Expert knowledge in PHP (Preferred Framework Laravel)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>The Creatics</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2319,12 +2321,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Computan</t>
+          <t>10Pearls</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2334,18 +2336,18 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Net Developer</t>
+          <t>StaffSenior Software Engineer  VueJs  Laravel</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3 plus years of web development experience in .NET.
-Net 6, C, Web APIs, Entity framework, SQL Server, JavaScript, jQuery, HTML5, and CSS3  Angular(Good to</t>
+          <t>10Pearls is proud to have a diverse clientele including large enterprises, SMBs and high growth startups.
+Developing user-facing applications using Vue.js.</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Computan</t>
+          <t>10Pearls</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2357,7 +2359,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A5 Solution</t>
+          <t>FINCON Services Inc</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2367,24 +2369,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Full-time
-1</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>ASPNET Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>In this role, youll play a key role in designing, developing, implementing, and maintaining robust web applications using ASP.
-NET MVCCore, Web API).</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>A5 Solution</t>
+          <t>Not Defined</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2396,12 +2396,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Star Technologies</t>
+          <t>A5 Solution</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Lahore</t>
+          <t>Islamabad</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Junior Software Engineer (.Net)</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2433,12 +2433,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>10Pearls</t>
+          <t>Greelogix</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Karachi</t>
+          <t>Lahore</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2448,18 +2448,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>StaffSenior Software Engineer NET MAUI</t>
+          <t>LaravelPHP Developer</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>We are currently seeking talented and experienced .
-The talented individuals will be responsible for designing, developing, and maintaining cross-platform</t>
+          <t>The ideal candidate is a highly resourceful and innovative developer with extensive experience in the layout, design and coding of websites specifically in PHP</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>10Pearls</t>
+          <t>Greelogix</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2471,12 +2470,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Coforge Ltd.</t>
+          <t>True Data Software</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Greater Noida, Uttar Pradesh</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2486,7 +2485,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>.Net developer</t>
+          <t>Laravel developers</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2508,12 +2507,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RSHIE Services</t>
+          <t>Visions</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Basavanagudi, Bengaluru, Karnataka</t>
+          <t>Chandigarh</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2523,7 +2522,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>C#/.NET developer</t>
+          <t>Laravel Developers</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2545,12 +2544,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Virtusa</t>
+          <t>Alobha Technologies</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Hybrid work in Andhra Pradesh</t>
+          <t>Noida, Uttar Pradesh</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2560,7 +2559,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>.NET FSD</t>
+          <t>Full-Stack developer (Laravel + NodeJS)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2582,12 +2581,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C-Metric Solutions</t>
+          <t>Gaffis Technologies</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Remote in Gandhinagar, Gujarat</t>
+          <t>Remote in Nagpur, Maharashtra</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2597,7 +2596,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>.Net MVC Developers</t>
+          <t>Internship - Engineering Graduates</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2619,12 +2618,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Cloud Kinetics</t>
+          <t>Zapoj</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Remote in Bengaluru, Karnataka</t>
+          <t>India</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2634,7 +2633,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>.Net Architect</t>
+          <t>PHP Laravel Developer with API Guide and Rate Limiter Implementation</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2656,12 +2655,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Uplers</t>
+          <t>Fexle InfoTech</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Remote in Noida, Uttar Pradesh</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2671,7 +2670,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>.Net FullStack Developer (WFH)</t>
+          <t>Remote Laravel Developer (upto 3 years)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2693,12 +2692,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BlackRock</t>
+          <t>Avanexa Technologies</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Hybrid work in Gurugram, Haryana</t>
+          <t>Coimbatore, Tamil Nadu</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2708,7 +2707,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>.Net Developer, Aladdin Engineering - Analyst</t>
+          <t>PHP (Laravel)</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2730,12 +2729,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Travayoo Cloud</t>
+          <t>Upsquare Technologies</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>India</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2745,7 +2744,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>.NET / MVC Developers</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2767,12 +2766,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Calpine Group</t>
+          <t>Creative Brain Web</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Kochi, Kerala</t>
+          <t>India</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2782,7 +2781,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>C#.net Developer- Engineer</t>
+          <t>PHP and Laravel Developer</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2804,12 +2803,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>EMVEE Information Technologies</t>
+          <t>LogicRays Technologies</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Ahmedabad, Gujarat</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2819,7 +2818,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>EMVEE210402 .NET with Microservices</t>
+          <t>LARAVEL DEVELOPER</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2841,12 +2840,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>multiply info solutions</t>
+          <t>HackerKernel</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Jodhpur, Rajasthan</t>
+          <t>Bhopal, Madhya Pradesh</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2856,7 +2855,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Jr. DOT NET Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2878,12 +2877,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Infomeck</t>
+          <t>YaaraDigi Media</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Ahmedabad, Gujarat</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2893,7 +2892,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Sr.NET Developer</t>
+          <t>Senior Laravel Developer</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2915,7 +2914,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Vision Infotech</t>
+          <t>MSP Concepts</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2930,7 +2929,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Sr .Net MVC With SQL Server</t>
+          <t>PHP + Laravel Team Leader</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2952,12 +2951,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>iTool Solutions</t>
+          <t>Nextwebi</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Surat, Gujarat</t>
+          <t>Bengaluru, Karnataka</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2967,7 +2966,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Dot Net Developer</t>
+          <t>Wordpress and PHP Developer</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2989,12 +2988,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Arcgate</t>
+          <t>Apollo Infotech</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Udaipur, Rajasthan</t>
+          <t>Ahmedabad, Gujarat</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3004,7 +3003,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>.NET Developers</t>
+          <t>php/laravel Developer</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3026,12 +3025,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Creative Web Solutions</t>
+          <t>Indglobal</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>India</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3041,7 +3040,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>C# Dot Net Developer Junior</t>
+          <t>PHP Laravel</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3063,12 +3062,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Helius Technologies</t>
+          <t>Nexevo Technologies</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Bengaluru, Karnataka</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3078,7 +3077,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Backend .NET Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -3100,12 +3099,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Virtusa</t>
+          <t>Codelattice</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hybrid work in Andhra Pradesh</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3115,7 +3114,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>FSD .Net</t>
+          <t>PHP Laravel &amp; Vue.js Developer</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -3137,12 +3136,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Stellar Innovations</t>
+          <t>Eglogics Softech Pvt. Ltd.</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sholinghur, Tamil Nadu</t>
+          <t>Noida, Uttar Pradesh</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3152,7 +3151,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>.Net Developer</t>
+          <t>LARAVEL DEVELOPER</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3174,12 +3173,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Capita</t>
+          <t>Imagino Solutions</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Calicut, Kerala</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3189,7 +3188,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Sr. Software Developer - .Net</t>
+          <t>PHP Laravel Developer</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3211,12 +3210,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>RadGate Infotech</t>
+          <t>Harry International</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Pune, Maharashtra</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3226,7 +3225,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>.NET</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3248,12 +3247,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Kansoft Solutions</t>
+          <t>Chapter247</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Fatehpura, Rajasthan</t>
+          <t>Indore, Madhya Pradesh</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3263,7 +3262,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>.Net Developers (MVC &amp; CORE)</t>
+          <t>Module Lead / Lead - Laravel</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3285,12 +3284,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Capita</t>
+          <t>Medishala</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Patna, Bihar</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3300,7 +3299,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Software Developer - .net</t>
+          <t>Senior Laravel Developer</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3322,12 +3321,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CAL4CARE</t>
+          <t>Alive Inc.</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Maharashtra</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3337,7 +3336,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Senior .Net Developers</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3359,12 +3358,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Helius Technologies</t>
+          <t>Codenia Technologies</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Noida, Uttar Pradesh</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3374,7 +3373,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>.NET Engineer</t>
+          <t>Laravel Developer - 1 year</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3396,12 +3395,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>estrrado</t>
+          <t>N-Xperts Solutions</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Technopark, Thiruvananthapuram, Kerala</t>
+          <t>Rajkot, Gujarat</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3411,7 +3410,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Asp.net Developer (Fresher)</t>
+          <t>Senior Laravel Developers</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3433,12 +3432,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Cloud 9 Infosystems</t>
+          <t>Erasmith Technologies</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Bengaluru, Karnataka</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3448,7 +3447,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Junior .NET Developer</t>
+          <t>PHP Laravel Development</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3470,12 +3469,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Denali Software Solutions</t>
+          <t>Zapoj</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Gujarat</t>
+          <t>India</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3485,7 +3484,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>.Net MVC Developers</t>
+          <t>PHP Laravel Developer with strong REST Api experience.</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3507,12 +3506,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Great Developers Info Tech Pvt Ltd</t>
+          <t>LILAC INFOTECH</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Noida, Uttar Pradesh</t>
+          <t>Calicut, Kerala</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3522,7 +3521,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Software Developers (.NET )/Noida</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3544,12 +3543,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SmartQ Bottle Lab Technologies Pvt Ltd</t>
+          <t>Kappsoft</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Bengaluru, Karnataka</t>
+          <t>India</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3559,7 +3558,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Dot Net Developer</t>
+          <t>PHP Developer(with LARAVEL frame work)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3581,12 +3580,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SunArc Technologies</t>
+          <t>TheWebPatriot</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Ahmedabad, Gujarat</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3596,7 +3595,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Software Engineer</t>
+          <t>Team Lead (PHP Laravel)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3618,12 +3617,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Studybase</t>
+          <t>A2Z Jobs Consultancy</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Bikaner, Rajasthan</t>
+          <t>Remote in Kolkata, West Bengal</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3633,7 +3632,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>C# .Net Web Developer</t>
+          <t>Php Laravel Developer (Remote)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3655,12 +3654,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>NetApp</t>
+          <t>Stack Console</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Bengaluru, Karnataka</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3670,7 +3669,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Software Engineer ( .Net Core, Cloud)</t>
+          <t>PHP Laravel Developer</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3692,12 +3691,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Dreamz Group</t>
+          <t>Provis Technologies</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Lucknow, Uttar Pradesh</t>
+          <t>Jaipur, Rajasthan</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3707,7 +3706,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>.Net Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3729,12 +3728,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Agasti Technologies</t>
+          <t>Sumanas Technologies</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Ahmadnagar, Maharashtra</t>
+          <t>Madurai, Tamil Nadu</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3744,7 +3743,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Jr. Dot Net Developer</t>
+          <t>SENIOR LARAVEL DEVELOPER</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3766,12 +3765,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Xentel Technologies</t>
+          <t>InnOvator Web Solutions</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Kerala</t>
+          <t>Malad, Pune, Maharashtra</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3781,7 +3780,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>DOT NET PROGRAMMER</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3803,12 +3802,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Gormalone</t>
+          <t>CAL4CARE</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Industrial Area , Lucknow, Uttar Pradesh</t>
+          <t>India</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3818,7 +3817,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>.NET Developer (Backend)</t>
+          <t>PHP Developers</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -3840,12 +3839,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Yash Technologies</t>
+          <t>Technozer Solution</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Katargam, Surat, Gujarat</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3855,7 +3854,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Software Engineer - .Net</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -3877,7 +3876,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Helius Technologies</t>
+          <t>Zapoj</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -3892,7 +3891,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>.NET Software Engineer</t>
+          <t>PHP Laravel Crisis Event Management API and Assets</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -3914,12 +3913,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Helius Technologies</t>
+          <t>vinove</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Noida, Uttar Pradesh</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3929,7 +3928,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Fullstack .NET Developer</t>
+          <t>PHP / Laravel FullStack Developers [I/E2-MM2]</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3951,12 +3950,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>OSP Labs</t>
+          <t>Webtech-Evolution (WTE)</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Thaltej, Ahmedabad, Gujarat</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3966,7 +3965,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>.NET Developer (1-5 yrs)</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3988,12 +3987,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Miracle Software Systems</t>
+          <t>Salesfokuz</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4003,7 +4002,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>.NET Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4025,12 +4024,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Online Weaver</t>
+          <t>Accenture</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Haridwar, Uttarakhand</t>
+          <t>Bengaluru, Karnataka</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4040,7 +4039,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Software Developer .Net Technologies</t>
+          <t>Application Developer</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4062,12 +4061,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Baker Hughes</t>
+          <t>Beta Soft Technology</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Kochi, Kerala</t>
+          <t>Delhi</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4077,7 +4076,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Software Engineer - C# .NET Core</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4099,12 +4098,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Virtusa</t>
+          <t>Lucid Softech IT Solutions</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Hybrid work in Andhra Pradesh</t>
+          <t>Lucknow, Uttar Pradesh</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4114,7 +4113,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>.Net Angular</t>
+          <t>Laravel developer</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4136,12 +4135,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Société Générale</t>
+          <t>Cambridge Technology Enterprises (CTE)</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Bengaluru, Karnataka</t>
+          <t>Remote in Hyderabad, Telangana</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4151,7 +4150,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Specialist Software Engineer Dot net- H/F/X</t>
+          <t>Senior Engineer / Lead - PHP (Laravel)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4173,12 +4172,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Infosys</t>
+          <t>Super Cluster</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Bengaluru, Karnataka</t>
+          <t>Remote</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4188,7 +4187,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>.Net Full Stack Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4210,12 +4209,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Persistent Systems</t>
+          <t>Wings Tech Solutions</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Rajkot, Gujarat</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4225,7 +4224,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>.Net Lead</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4247,12 +4246,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Capita</t>
+          <t>MYRIAD SOLUTIONZ</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Ahmedabad, Gujarat</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4262,7 +4261,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>.Net Lead Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4284,12 +4283,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>WebSenor</t>
+          <t>PulsePlay Digital</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Gurugram, Haryana</t>
+          <t>India</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4299,7 +4298,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>ASP.NET Developers</t>
+          <t>Backend Developers</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4321,12 +4320,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Ailoitte Technologies</t>
+          <t>Geekyants</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Remote</t>
+          <t>Bengaluru, Karnataka</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4336,7 +4335,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Full Stack Dot Net Developers</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4358,12 +4357,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Solarius Solutions</t>
+          <t>JustWravel</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Noida, Uttar Pradesh</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4373,7 +4372,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>.NET Programmer</t>
+          <t>Backend Developer (PHP Laravel)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4395,12 +4394,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>EMVEE Information Technologies</t>
+          <t>BiCSoM Technologies</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>Remote in Bengaluru, Karnataka</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4410,7 +4409,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>EMVEE210503 .Net &amp; Java Full Stack (Sr. Developers - Architects)</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4432,12 +4431,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Everex Infotech</t>
+          <t>MNS Technoweb</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Gandhinagar, Gujarat</t>
+          <t>Rajkot, Gujarat</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4447,7 +4446,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Dot Net Developer/Asp Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4469,12 +4468,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Infoveave</t>
+          <t>Webomindapps</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Karnataka</t>
+          <t>Koramangala, Bengaluru, Karnataka</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4484,7 +4483,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>.NET DEVELOPER</t>
+          <t>PHP Laravel Developer</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -4506,12 +4505,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>EPAM Systems</t>
+          <t>Codignus Technologies</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Hybrid work in India</t>
+          <t>Kerala</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4521,7 +4520,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Middle .NET Developer</t>
+          <t>PHP Developers-(Laravel)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4543,12 +4542,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Cbsl Group</t>
+          <t>Fresco Web services</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Gurugram, Haryana</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4558,7 +4557,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Dot Net Develeoper</t>
+          <t>Laravel Developer - Experience 2+ years</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4580,12 +4579,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>intellinez</t>
+          <t>ROGERSOFT Technologies</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Mohali, Punjab</t>
+          <t>India</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4595,7 +4594,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Dot Net Developer</t>
+          <t>Laravel Developer ( code : LVL/1 )</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4617,12 +4616,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>IT Path Solutions</t>
+          <t>Skyline Infosys</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Ahmedabad, Gujarat</t>
+          <t>Indore, Madhya Pradesh</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4632,7 +4631,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Asp.net + JS Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4654,12 +4653,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Hewlett Packard</t>
+          <t>Solwin Infotech</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Bengaluru, Karnataka</t>
+          <t>Adajan, Surat, Gujarat</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -4669,7 +4668,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Microsoft Full Stack Developer ( .Net , C#)</t>
+          <t>Sr. Laravel / CI Developer</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -4691,7 +4690,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Hackbal Business Solutions</t>
+          <t>Cignes Business Solutions</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -4706,7 +4705,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ASP.net Developer</t>
+          <t>Senior PHP Developer (Vacancy 2)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4728,12 +4727,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>KBR</t>
+          <t>webook.com</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>الخبر</t>
+          <t>الرياض</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -4743,7 +4742,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Dot Net Programming Developer</t>
+          <t>Senior Backend Engineer - Laravel</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -4765,12 +4764,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>D360 Bank</t>
+          <t>Creative Clouds IT</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>المدينة</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -4780,7 +4779,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Software Engineer - Dot Net</t>
+          <t>Senior Fullstack Developer</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -4802,12 +4801,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>FAO</t>
+          <t>Salla</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>المملكة العربية السعودية</t>
+          <t>مكة</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -4817,7 +4816,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Programme Assistant</t>
+          <t>Senior Backend Engineer - Laravel</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4839,7 +4838,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>British International School Riyadh (BISR)</t>
+          <t>Infosysta</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -4854,7 +4853,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Design Technology and Art Technician - Al Waha Campus - Required August 2024</t>
+          <t>Back-End - Front-end Developers - Only Saudi Nationals</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4876,7 +4875,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>PradeepIT Consulting Services</t>
+          <t>Salla</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -4891,7 +4890,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Senior .NET Lead</t>
+          <t>Tech Lead ( Laravel )</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4913,7 +4912,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>شركة أجمل التجارية</t>
+          <t>Arabic Computer Systems</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -4928,7 +4927,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>بائعة عطور</t>
+          <t>PHP Developer</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4950,12 +4949,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>KBR</t>
+          <t>webook.com</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>الخبر</t>
+          <t>الرياض</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -4965,7 +4964,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>AVEVA AIM (NET) Administrator</t>
+          <t>Solution Architect / Technical Lead</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -4987,12 +4986,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Nahdi</t>
+          <t>ekar</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>خميس مشيط</t>
+          <t>الرياض</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5002,7 +5001,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Endodontics Registrar-(Khamis Mushait)-(203021)</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5024,7 +5023,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>British International School Riyadh (BISR)</t>
+          <t>Jeeny</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -5039,7 +5038,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Senior School Mathematics Teacher - DQ Campus - Required for August 2024</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5061,7 +5060,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Egis</t>
+          <t>Foodics</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -5076,7 +5075,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Graphic Designer M/F</t>
+          <t>Senior DevOps Engineer</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5098,7 +5097,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>D360 Bank</t>
+          <t>D4DS</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -5113,7 +5112,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Senior Software Engineer - Dot Net</t>
+          <t>Full Stack PHP Developer</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5135,12 +5134,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Nahdi</t>
+          <t>Salla</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>خميس مشيط</t>
+          <t>جدة</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5150,7 +5149,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>ER Physician-(Khamis Mushait)</t>
+          <t>Software Engineering Manager ( Payment - Fintech )</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5172,7 +5171,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Egis</t>
+          <t>Cignes Business Solutions</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -5187,7 +5186,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Quantity Surveyor M/F</t>
+          <t>Senior PHP Developer (Vacancy 2)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5209,12 +5208,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Nahdi</t>
+          <t>webook.com</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>خميس مشيط</t>
+          <t>الرياض</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5224,7 +5223,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Physiotherapist-(Khamis Mushait)</t>
+          <t>Senior Backend Engineer - Laravel</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5246,12 +5245,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>British International School Riyadh (BISR)</t>
+          <t>Creative Clouds IT</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>المدينة</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5261,7 +5260,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Supply Teaching Assistants - Riyadh Campuses</t>
+          <t>Senior Fullstack Developer</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5283,12 +5282,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>German Medicine Net</t>
+          <t>Salla</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>المملكة العربية السعودية</t>
+          <t>مكة</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5298,7 +5297,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>gynaecology/IVF</t>
+          <t>Senior Backend Engineer - Laravel</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5320,12 +5319,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>m2r Education</t>
+          <t>Infosysta</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>المملكة العربية السعودية</t>
+          <t>الرياض</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5335,7 +5334,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Economics and Political Science Tutor (male) - Riyadh VVIP Client</t>
+          <t>Back-End - Front-end Developers - Only Saudi Nationals</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5357,7 +5356,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>شركة ركن المجرة</t>
+          <t>Salla</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -5372,7 +5371,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>مندوب مبيعات</t>
+          <t>Tech Lead ( Laravel )</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -5394,12 +5393,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Nahdi</t>
+          <t>Arabic Computer Systems</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>خميس مشيط</t>
+          <t>الرياض</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5409,7 +5408,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Laboratory Technique Specialist-(Khamis Mushait)</t>
+          <t>PHP Developer</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -5431,7 +5430,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>British International School Riyadh (BISR)</t>
+          <t>webook.com</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -5446,7 +5445,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Senior School English Teacher - Al Waha Campus - Required August 2024</t>
+          <t>Solution Architect / Technical Lead</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -5468,7 +5467,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Egis</t>
+          <t>ekar</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -5483,7 +5482,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Procurement Specialist M/F</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -5505,12 +5504,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Thales</t>
+          <t>Jeeny</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>جدة</t>
+          <t>الرياض</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5520,7 +5519,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Software Systems Engineer</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -5542,7 +5541,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Egis</t>
+          <t>Foodics</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -5557,7 +5556,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Document Controller (Saudi National) M/F</t>
+          <t>Senior DevOps Engineer</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -5579,7 +5578,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Parsons</t>
+          <t>D4DS</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -5594,7 +5593,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>GIS Analyst</t>
+          <t>Full Stack PHP Developer</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5616,12 +5615,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>British International School Riyadh (BISR)</t>
+          <t>Salla</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>جدة</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -5631,7 +5630,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Learning Support Assistant - DQ Campus - Required August 2024</t>
+          <t>Software Engineering Manager ( Payment - Fintech )</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5653,12 +5652,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>German Medicine Net</t>
+          <t>Cignes Business Solutions</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>المملكة العربية السعودية</t>
+          <t>الرياض</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -5668,7 +5667,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Assistant Director of Nursing Required</t>
+          <t>Senior PHP Developer (Vacancy 2)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5690,7 +5689,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Egis</t>
+          <t>webook.com</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -5705,7 +5704,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Architecture Inspector</t>
+          <t>Senior Backend Engineer - Laravel</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5727,12 +5726,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>IHCC</t>
+          <t>Creative Clouds IT</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>جدة</t>
+          <t>المدينة</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -5742,7 +5741,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Senior Fullstack Developer</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5764,12 +5763,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>N5 Now</t>
+          <t>Salla</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>المملكة العربية السعودية</t>
+          <t>مكة</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -5779,7 +5778,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Desarrollador Fullstack</t>
+          <t>Senior Backend Engineer - Laravel</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5801,7 +5800,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Egis</t>
+          <t>Infosysta</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -5816,7 +5815,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Architecture Inspector</t>
+          <t>Back-End - Front-end Developers - Only Saudi Nationals</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5838,7 +5837,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Egis</t>
+          <t>Salla</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -5853,7 +5852,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Senior Architect M/F</t>
+          <t>Tech Lead ( Laravel )</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -5875,12 +5874,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Baker Hughes</t>
+          <t>Arabic Computer Systems</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>الظهران</t>
+          <t>الرياض</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -5890,7 +5889,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Field Specialist - Artificial Lift Systems</t>
+          <t>PHP Developer</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -5912,7 +5911,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Alpin Limited</t>
+          <t>webook.com</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -5927,7 +5926,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Environmental Consultant - Riyadh, KSA</t>
+          <t>Solution Architect / Technical Lead</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5949,12 +5948,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Excrin Think Labs</t>
+          <t>ekar</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>المملكة العربية السعودية</t>
+          <t>الرياض</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -5964,7 +5963,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5986,7 +5985,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>genesis system</t>
+          <t>Jeeny</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -6001,7 +6000,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>مسؤول مشتريات</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -6023,7 +6022,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>OTO</t>
+          <t>Foodics</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -6038,7 +6037,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Partnership Executive</t>
+          <t>Senior DevOps Engineer</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6060,7 +6059,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>British International School Riyadh (BISR)</t>
+          <t>D4DS</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -6075,7 +6074,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>IT Systems Engineer - Whole School - Required Immediately</t>
+          <t>Full Stack PHP Developer</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6097,7 +6096,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>IHCC</t>
+          <t>Salla</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -6112,7 +6111,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Web Developer</t>
+          <t>Software Engineering Manager ( Payment - Fintech )</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6134,12 +6133,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Islamic Development Bank</t>
+          <t>Cignes Business Solutions</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>جدة</t>
+          <t>الرياض</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6149,7 +6148,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Data Visualization &amp;Analytics Specialist</t>
+          <t>Senior PHP Developer (Vacancy 2)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -6171,12 +6170,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>German Medicine Net</t>
+          <t>webook.com</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>المملكة العربية السعودية</t>
+          <t>الرياض</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6186,7 +6185,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Assistant Director of Nursing Required</t>
+          <t>Senior Backend Engineer - Laravel</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -6208,12 +6207,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>N5 Now</t>
+          <t>Creative Clouds IT</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>المملكة العربية السعودية</t>
+          <t>المدينة</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6223,7 +6222,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Desarrollador Fullstack</t>
+          <t>Senior Fullstack Developer</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -6245,12 +6244,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Nahdi</t>
+          <t>Salla</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>خميس مشيط</t>
+          <t>مكة</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6260,7 +6259,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Radiology Technique Specialist-(Khamis Mushait)</t>
+          <t>Senior Backend Engineer - Laravel</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6282,12 +6281,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>German Medicine Net</t>
+          <t>Salla</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>المملكة العربية السعودية</t>
+          <t>الرياض</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6297,7 +6296,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Head Nurses Required</t>
+          <t>Tech Lead ( Laravel )</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -6319,7 +6318,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>British International School Riyadh (BISR)</t>
+          <t>Infosysta</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -6334,7 +6333,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Supply Teachers – Al Hamra/DQ/Salwa/Taif/Tabuk Campus</t>
+          <t>Back-End - Front-end Developers - Only Saudi Nationals</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6356,12 +6355,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Baker Hughes</t>
+          <t>Arabic Computer Systems</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>الدمام</t>
+          <t>الرياض</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6371,7 +6370,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Manufacturing Specialist - Production Supervision</t>
+          <t>PHP Developer</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -6393,12 +6392,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>شركة أجمل التجارية</t>
+          <t>webook.com</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>جدة</t>
+          <t>الرياض</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6408,7 +6407,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>مسئول علاقات عامة</t>
+          <t>Solution Architect / Technical Lead</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -6430,7 +6429,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Marktine Technology Solutions</t>
+          <t>ekar</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -6445,7 +6444,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Senior Developer</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -6467,7 +6466,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ABB</t>
+          <t>Jeeny</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -6482,7 +6481,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Country Communications Manager, Saudi Arabia &amp; United Arab Emirates</t>
+          <t>Full Stack Developer</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -6504,12 +6503,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Egis</t>
+          <t>D4DS</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>العلا</t>
+          <t>الرياض</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6519,7 +6518,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Commercial &amp; Contracts Director M/F</t>
+          <t>Full Stack PHP Developer</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6541,12 +6540,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Egis</t>
+          <t>Salla</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>تبوك</t>
+          <t>جدة</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6556,7 +6555,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Design Manager M/F</t>
+          <t>Software Engineering Manager ( Payment - Fintech )</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -6578,12 +6577,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Nahdi</t>
+          <t>Foodics</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>المملكة العربية السعودية</t>
+          <t>الرياض</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -6593,7 +6592,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Guest Care Representative</t>
+          <t>Senior DevOps Engineer</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -6615,296 +6614,736 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Bunge</t>
+          <t>E-ComXpert,</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Lahore</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Trade Contract Administration Specialist</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not Defined!</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not Defined!</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Creatio</t>
+          <t>Prime BPO,</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>, Pakistan</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Solutions Consultant</t>
+          <t>PHP / Laravel Developer</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not Defined!</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not Defined!</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>United SEO,</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Karachi</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>Laravel Developer</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not Defined!</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not Defined!</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>KAUST</t>
+          <t>EZ Services,</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ثول</t>
+          <t>, Pakistan</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>FACULTY POSITIONS IN SUSTAINABILITY SCIENCE AND ENGINEERING</t>
+          <t>Flutter / Laravel Developer</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not Defined!</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not Defined!</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Mace</t>
+          <t>I4 EIT Solutions,</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Lahore</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Personal Assistant</t>
+          <t>Senior Laravel Developer</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not Defined!</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not Defined!</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>genesis system</t>
+          <t>Viral Webbs,</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Islamabad</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>موظف دعم اداري</t>
+          <t>PHP Laravel Developer</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not Defined!</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not Defined!</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>British International School Riyadh (BISR)</t>
+          <t>Zoom Digital,</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Lahore</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>School Nurse (Supply) – Riyadh Campuses</t>
+          <t>Senior Laravel Developer</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not Defined!</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not Defined!</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Fisher Investments Europe</t>
+          <t>Carbon Reprographics,</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>الرياض</t>
+          <t>Lahore</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not specified</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Investor Responsibility &amp; Engagement Analyst - Saudi Arabia</t>
+          <t>Full Stack Developer - Laravel / Vue.js</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not Defined!</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Not Defined</t>
+          <t>Not Defined!</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>sa Indeed</t>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Tech Funnel,</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Sialkot</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>PHP Developer</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>5 Point 12 Limited,</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr"/>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Senior PHP/ Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>RatedSol Tech,</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Dera Ghazi Khan</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Atlas Group,</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Application Engineer</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>RatedSol Tech,</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Dera Ghazi Khan</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>PHP / Laravel / WordPress Developer</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Zbee Tech,</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Rawalpindi</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Full Stack Web Developer</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>United SEO,</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Lead Product Developer</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Aptech Pakistan,</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Programming Languages Faculty</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Dravis Studio,</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Lahore</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Angular / Laravel Developer</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>KIT Consultants,</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Lahore</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Backend Developer</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>RatedSol Tech,</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Dera Ghazi Khan</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Web Developer</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>TriA Tech Solution Pvt. Ltd.,</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Karachi</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Not specified</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>PHP Developer</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not Defined!</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rozee.pk</t>
         </is>
       </c>
     </row>
